--- a/combined/Kantor_Polisi.xlsx
+++ b/combined/Kantor_Polisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.890028</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.890028</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.326896</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Bantul/@-7.8900282,110.2547986,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff576b58e70d:0x80c387090b4afb63!8m2!3d-7.8900282!4d110.3268964!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzv5l4s4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,22 +533,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-7.896403</v>
+      </c>
       <c r="G3" t="n">
-        <v>-7.896403</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.337293</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Bantul/@-7.8900282,110.2547986,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55f8a0a9c05d:0x377b94c5f297e07b!8m2!3d-7.8964032!4d110.3372926!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzrhlrl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,22 +567,21 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.889791</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.889791</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.37388</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.8897912,110.3017826,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5663df322d0b:0x54e179062d176be!8m2!3d-7.8897912!4d110.3738804!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptwx6w2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,22 +605,21 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.905142</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.905142</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.350532</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Satuan+Polisi+Pamong+Praja+(+SATPOL+PP+)+Kabupaten+Bantul/@-7.8897912,110.3017826,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff568ba034a5:0x567695739985e67a!8m2!3d-7.9051418!4d110.3505315!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzs974n0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -651,25 +642,24 @@
           <t>(0274) 414132</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.811269</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.811269</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.407671</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polsek+Banguntapan/@-7.8112693,110.335573,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a572ce297477d:0x1c1c3da4ab34a480!8m2!3d-7.8112693!4d110.4076708!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptw4y9m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polsek+Banguntapan/@-7.8112693,110.335573,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a572ce297477d:0x1c1c3da4ab34a480!8m2!3d-7.8112693!4d110.4076708!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptw4y9m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -693,22 +683,21 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-7.927386</v>
+      </c>
       <c r="G7" t="n">
-        <v>-7.927386</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.32015</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Bambanglipuro/@-7.9273857,110.2480525,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b0002c375ec43:0x7b97cca205542a65!8m2!3d-7.9273857!4d110.3201503!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzs5kf08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -728,22 +717,21 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.847246</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.847246</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.360359</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polisi+Sektor+Sewon/@-7.8472456,110.2882609,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a564f27d9b8fd:0x1e26b3c5595f379f!8m2!3d-7.8472456!4d110.3603587!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqxcw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -763,22 +751,21 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.976664</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.976664</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.270275</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sanden/@-7.9766638,110.1981773,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b01c54f59e28d:0x5e6295be5cb1d315!8m2!3d-7.9766638!4d110.2702751!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11c6cg6tjq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -794,22 +781,21 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.813063</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.813063</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.355804</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Pojok+Beteng+Kulon/@-7.8130626,110.2837057,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5794beb8f4d1:0xf5dc89f763b359a1!8m2!3d-7.8130626!4d110.3558035!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11f_4s5vrz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -824,25 +810,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.836026</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.836026</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.365614</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Unit+Lalu+Lintas+Polsek+Sewon+%22Pos+Druwo%22/@-7.8130626,110.2837057,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57b2965f08c7:0xa949deff73a0b8e6!8m2!3d-7.8360259!4d110.3656142!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gh0l1s3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Unit+Lalu+Lintas+Polsek+Sewon+%22Pos+Druwo%22/@-7.8130626,110.2837057,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57b2965f08c7:0xa949deff73a0b8e6!8m2!3d-7.8360259!4d110.3656142!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gh0l1s3m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -866,22 +851,21 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.865919</v>
+      </c>
       <c r="G12" t="n">
-        <v>-7.865919</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.404664</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pleret/@-7.8659187,110.3325663,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5697c0228ae7:0x5ed87275848e1ff9!8m2!3d-7.8659187!4d110.4046641!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11b6d2n6s9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -905,22 +889,21 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.828945</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.828945</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.342511</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kasihkan/@-7.828945,110.2704133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57d7498e2547:0x466590f326714714!8m2!3d-7.828945!4d110.3425111!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pztslp_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -940,22 +923,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.910427</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.910427</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.293995</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pandak/@-7.9104267,110.2218967,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7affbd0d70b02b:0x9b8184b1cc3278aa!8m2!3d-7.9104267!4d110.2939945!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F11bbrhz7_m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -979,22 +961,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7994546,110.2905068,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1009,25 +990,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>-7.909426</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.909426</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.351805</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Bakulan/@-7.9094265,110.2797075,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a559783d0e9d1:0x4317b5444d8e5b57!8m2!3d-7.9094265!4d110.3518053!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEHNlY3VyaXR5X3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMVmxsWXpWQlJSQULgAQD6AQQIABAz!16s%2Fg%2F11c2pp2f_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Bakulan/@-7.9094265,110.2797075,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a559783d0e9d1:0x4317b5444d8e5b57!8m2!3d-7.9094265!4d110.3518053!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEHNlY3VyaXR5X3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMVmxsWXpWQlJSQULgAQD6AQQIABAz!16s%2Fg%2F11c2pp2f_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1051,22 +1031,21 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-7.812115</v>
+      </c>
       <c r="G17" t="n">
-        <v>-7.812115</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.270861</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sedayu/@-7.8121154,110.1987632,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7ae35155555553:0x89344234c0c93985!8m2!3d-7.8121154!4d110.270861!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1ptz2j9db?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1090,22 +1069,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-7.837727</v>
+      </c>
       <c r="G18" t="n">
-        <v>-7.837727</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.474793</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Piyungan/@-7.8377272,110.4026949,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a510755adf6bb:0x12aa98fed3f9179d!8m2!3d-7.8377272!4d110.4747927!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzttxmtm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1121,22 +1099,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.929555</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.929555</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.467085</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%AD%EA%A6%B6%EA%A6%94%EA%A6%BA%EA%A6%B4+Polsek+Dlingo/@-7.9295555,110.3949876,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a531bfb314fb9:0x81aef2fe6f84eaa7!8m2!3d-7.9295555!4d110.4670854!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11c45nj7mz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1151,25 +1128,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.846698</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.846698</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.344303</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Kasongan/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a563047f93443:0x38cc2d389ca86740!8m2!3d-7.8466976!4d110.3443026!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11h9v6zvg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Kasongan/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a563047f93443:0x38cc2d389ca86740!8m2!3d-7.8466976!4d110.3443026!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11h9v6zvg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1197,22 +1173,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.797843</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.797843</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.376579</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakualaman/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57804a6e69a5:0xd5497043793affda!8m2!3d-7.7978432!4d110.3765788!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tjxnvwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1227,25 +1202,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-7.890453</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.890453</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.326575</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satuan+Penyelenggara+Administrasi+SIM+(SATPAS)+Polres+Bantul/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7affe4388a0d63:0x1767a2fedb55ed2c!8m2!3d-7.890453!4d110.3265745!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBHGRlcGFydG1lbnRfb2ZfbW90b3JfdmVoaWNsZXOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTktha3AxWDJWbkVBReABAPoBBQjeARBF!16s%2Fg%2F11fp6p76b8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satuan+Penyelenggara+Administrasi+SIM+(SATPAS)+Polres+Bantul/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7affe4388a0d63:0x1767a2fedb55ed2c!8m2!3d-7.890453!4d110.3265745!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBHGRlcGFydG1lbnRfb2ZfbW90b3JfdmVoaWNsZXOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTktha3AxWDJWbkVBReABAPoBBQjeARBF!16s%2Fg%2F11fp6p76b8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1273,22 +1247,21 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.818087</v>
+      </c>
       <c r="G23" t="n">
-        <v>-7.818087</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.373395</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mergangsan/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57a1902789df:0x7bbcff60a2d241a4!8m2!3d-7.8180873!4d110.3733954!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11bbx0swyj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1307,25 +1280,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1345,22 +1317,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.827951</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.827951</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.354007</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+DONGKELAN/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57c805e97fe7:0x347c6752c45c145!8m2!3d-7.8279507!4d110.3540065!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11g9qshrlm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1376,22 +1347,21 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.891219</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.891219</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.325895</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+Gose/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff59e468c001:0xaccb83e558ba03d!8m2!3d-7.8912189!4d110.325895!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11c522g6_t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1407,22 +1377,21 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.867003</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.867003</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.338102</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Cepit+Bantul/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a561b9f86f129:0x693b44fb0769e1e7!8m2!3d-7.8670033!4d110.3381021!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11crzxx_rd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1437,25 +1406,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>-7.792968</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.792968</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.410387</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polisi+Militer/@-7.7929682,110.3382892,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a59e26f1d969f:0x6649074e1f8c92b5!8m2!3d-7.7929682!4d110.410387!15sChRLYW50b3IgUG9saXNpIEJhbnR1bOABAA!16s%2Fg%2F11y46__sd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polisi+Militer/@-7.7929682,110.3382892,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a59e26f1d969f:0x6649074e1f8c92b5!8m2!3d-7.7929682!4d110.410387!15sChRLYW50b3IgUG9saXNpIEJhbnR1bOABAA!16s%2Fg%2F11y46__sd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1479,22 +1447,21 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-7.955864</v>
+      </c>
       <c r="G29" t="n">
-        <v>-7.955864</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.344273</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pundong/@-7.9558642,110.2721753,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a555f8fcd0abd:0x39cb3501d8cfd31b!8m2!3d-7.9558642!4d110.3442731!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzsfhxf9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1509,25 +1476,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>-7.799716</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.799716</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.330136</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1550,25 +1516,24 @@
           <t>(0274) 367682</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-8.020832</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.020832</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.32765</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polsek+Kretek/@-8.0208322,110.2555524,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b006f091054d9:0x668f87d1c68ba242!8m2!3d-8.0208322!4d110.3276502!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDGNpdmlsX3BvbGljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGRHRjJZVGhuUlJBQuABAPoBBAgAECc!16s%2Fg%2F1pzwkxdk7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polsek+Kretek/@-8.0208322,110.2555524,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b006f091054d9:0x668f87d1c68ba242!8m2!3d-8.0208322!4d110.3276502!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDGNpdmlsX3BvbGljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGRHRjJZVGhuUlJBQuABAPoBBAgAECc!16s%2Fg%2F1pzwkxdk7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1587,25 +1552,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.83681</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.83681</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.391718</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pos+Polisi+Gondowulung/@-7.8368096,110.3196205,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a56e2bc383e1d:0x9c85d7170f8d44c7!8m2!3d-7.8368096!4d110.3917183!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2XgAQA!16s%2Fg%2F11f3v5kbbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pos+Polisi+Gondowulung/@-7.8368096,110.3196205,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a56e2bc383e1d:0x9c85d7170f8d44c7!8m2!3d-7.8368096!4d110.3917183!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2XgAQA!16s%2Fg%2F11f3v5kbbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1633,22 +1597,21 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.891228</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.891228</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.278763</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pajangan/@-7.8912278,110.2066653,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7b002a099f453b:0x831b7b5bfeb36e79!8m2!3d-7.8912278!4d110.2787631!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1pzt6k4m9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1664,22 +1627,21 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.865522</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.865522</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.309037</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Cakruk+Guyup+Rukun/@-7.8912278,110.2066653,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af8bf33c07c8f:0x9e8854f6c26361a8!8m2!3d-7.8655222!4d110.3090368!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11cmhw0r_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1695,22 +1657,21 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.890142</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.890142</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.326661</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Layanan+SKCK/@-7.890142,110.2545633,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff576617a61b:0x9a84ba6c4af25093!8m2!3d-7.890142!4d110.3266611!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11gflzxzhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1730,22 +1691,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.940552</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.940552</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.245243</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Srandakan/@-7.9405521,110.1731456,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7afe6e883ff9bb:0xbb1515d654883f8c!8m2!3d-7.9405521!4d110.2452434!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzqy5w44?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1765,22 +1725,21 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.96755</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.96755</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.336839</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+BBG+Lipuro-BTL/@-7.96755,110.2647412,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7baaa955555533:0x3ba9fbf1ee92cf37!8m2!3d-7.96755!4d110.336839!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1q62g0wsm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1800,22 +1759,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.885701</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.885701</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.330676</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pospol+Dongkelan/@-7.885701,110.2585782,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff5603d3f1e1:0x58e5718d5c3cca2d!8m2!3d-7.885701!4d110.330676!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1q62dlm7b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1838,25 +1796,24 @@
           <t>(0274) 367404</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.7</v>
+        <v>-7.883441</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.883441</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.332073</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Kecamatan+Bantul/@-7.885701,110.2585782,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55ff71e22061:0xe068810d5d57a321!8m2!3d-7.8834409!4d110.3320728!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBGmRpc3RyaWN0X2dvdmVybm1lbnRfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0TUc4eWJGQm5FQUXgAQD6AQQIABA5!16s%2Fg%2F11b6mp0syy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1880,22 +1837,21 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.783032</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.783032</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.359903</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.7830317,110.2878047,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5840bfffffff:0x7fc5021ae8790f58!8m2!3d-7.7830317!4d110.3599025!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBBnBvbGljZeABAA!16s%2Fg%2F1pzpqljw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1910,25 +1866,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.828621</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.828621</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.408143</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Jogoragan(%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%92%EA%A6%A4%EA%A7%80)/@-7.8286214,110.3360455,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57a78e96b38f:0x1f194640be8c35e5!8m2!3d-7.8286214!4d110.4081433!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gsctbprb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1944,22 +1899,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.826711</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.826711</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.345003</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Perempatan+RINGROAD+Madukismo/@-7.8267111,110.2729052,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57c56d5afe77:0x72b2749cdac05190!8m2!3d-7.8267111!4d110.345003!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11fy7bk2ss?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1982,25 +1936,24 @@
           <t>(0274) 4538739</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>3.6</v>
+        <v>-7.79932</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.79932</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.402544</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SATPOL+PP+Daerah+Istimewa+Yogyakarta/@-7.7993204,110.330446,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a575dfdc16a87:0xa712f78ce370d312!8m2!3d-7.7993204!4d110.4025438!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBGnJlZ2lvbmFsX2dvdmVybm1lbnRfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sYlUxMk9WaG5FQUXgAQD6AQQIABAU!16s%2Fg%2F11c0wdxcvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SATPOL+PP+Daerah+Istimewa+Yogyakarta/@-7.7993204,110.330446,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a575dfdc16a87:0xa712f78ce370d312!8m2!3d-7.7993204!4d110.4025438!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBGnJlZ2lvbmFsX2dvdmVybm1lbnRfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sYlUxMk9WaG5FQUXgAQD6AQQIABAU!16s%2Fg%2F11c0wdxcvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2027,25 +1980,24 @@
           <t>(0274) 367483</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F44" t="n">
-        <v>3.9</v>
+        <v>-7.891765</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.891765</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.329852</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.2577541,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDmxpY2Vuc2VfYnVyZWF1mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10T1dKbFlrdDNFQUXgAQD6AQUI1wEQRA!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.2577541,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDmxpY2Vuc2VfYnVyZWF1mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10T1dKbFlrdDNFQUXgAQD6AQUI1wEQRA!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -2064,25 +2016,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.811802</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.811802</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.40927</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pospol+Ketandan/@-7.8118021,110.3371719,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5746d94ef541:0x5e759670664d9d4f!8m2!3d-7.8118021!4d110.4092697!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhOa3RwVG5oUlJSQULgAQD6AQQIABAo!16s%2Fg%2F11c6vnz3cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pospol+Ketandan/@-7.8118021,110.3371719,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5746d94ef541:0x5e759670664d9d4f!8m2!3d-7.8118021!4d110.4092697!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEGNvcnBvcmF0ZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhOa3RwVG5oUlJSQULgAQD6AQQIABAo!16s%2Fg%2F11c6vnz3cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2109,25 +2060,24 @@
           <t>(0274) 367348</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.890949</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.890949</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.325159</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.2530612,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD2NpdHlfY291cnRob3VzZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmREVXRabWRuUlJBQuABAPoBBAgeECo!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.2530612,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD2NpdHlfY291cnRob3VzZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmREVXRabWRuUlJBQuABAPoBBAgeECo!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2147,22 +2097,21 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-7.868055</v>
+      </c>
       <c r="G47" t="n">
-        <v>-7.868055</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.351589</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Tembi/@-7.890949,110.2530612,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57f9b3259d75:0x8a9b683e587a669f!8m2!3d-7.8680549!4d110.351589!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11rp3473v9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2186,22 +2135,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-7.822656</v>
+      </c>
       <c r="G48" t="n">
-        <v>-7.822656</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.39897</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kotagede/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5716131e9a83:0x8425fe94d512223c!8m2!3d-7.8226561!4d110.3989696!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tx1krnh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2217,22 +2165,21 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-7.923045</v>
+      </c>
       <c r="G49" t="n">
-        <v>-7.923045</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.387156</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Imogiri/@-7.9230455,110.3150578,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55aaec988187:0x856e239c045d8d6d!8m2!3d-7.9230455!4d110.3871556!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzrvj75t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2255,25 +2202,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-7.796721</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.796721</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.359831</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.2877327,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.2877327,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2293,22 +2239,21 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.788025</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.788025</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.359639</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ditlantas+Polda+DIY/@-7.7967213,110.2877327,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5823720266d5:0x4dfe2e7e5b1f3170!8m2!3d-7.7880249!4d110.3596386!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1hm43_n9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2331,25 +2276,24 @@
           <t>(0274) 6462100</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.6</v>
+        <v>-7.899423</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.899423</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.321905</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BPBD+Bantul/@-7.8994233,110.2498075,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7aff5d09c78d4b:0x886d9763b0360fe3!8m2!3d-7.8994233!4d110.3219053!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFHB1YmxpY19zYWZldHlfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYYnkxdVNFVjNFQUXgAQD6AQUIswQQQA!16s%2Fg%2F11c0pzf8d6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2364,25 +2308,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>-7.811872</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.811872</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.409273</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Lantas+Simpang+Ketandan/@-7.8118717,110.3371756,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5746d1a80521:0x877d77b696583563!8m2!3d-7.8118717!4d110.4092734!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE5rMXBNVWhCRUFF4AEA-gEECAAQHw!16s%2Fg%2F11dxl29d31?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2401,25 +2344,24 @@
           <t>(0274) 368222</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.9</v>
+        <v>-7.829492</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.829492</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.335827</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DAMKAR+Kabupaten+Bantul/@-7.8294924,110.2637292,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57f7ad06e329:0x5fd81f509cecf949!8m2!3d-7.8294924!4d110.335827!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBDGZpcmVfc3RhdGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWNGOWliV2xuUlJBQuABAPoBBAgAECo!16s%2Fg%2F11fv1gb62n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2435,22 +2377,21 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.838199</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.838199</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.475993</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Piyungan/@-7.8381987,110.4038952,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a51a9bd38cb13:0xc7b5b627d181e32d!8m2!3d-7.8381987!4d110.475993!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11cnc0ctxw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2466,22 +2407,21 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-7.828791</v>
+      </c>
       <c r="G56" t="n">
-        <v>-7.828791</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.409827</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+pos+polisi/@-7.8287915,110.3377287,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a570053667495:0x4c7b2b247f806c7a!8m2!3d-7.8287915!4d110.4098265!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBC3Bvc3Rfb2ZmaWNl4AEA!16s%2Fg%2F11vyyc_gq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2501,22 +2441,21 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-7.762193</v>
+      </c>
       <c r="G57" t="n">
-        <v>-7.762193</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.415376</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Timur/@-7.7621926,110.3432783,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a59a19b0b3c1d:0x25df91e47423b2!8m2!3d-7.7621926!4d110.4153761!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzt98j26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2532,22 +2471,21 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>-7.881776</v>
+      </c>
       <c r="G58" t="n">
-        <v>-7.881776</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.332627</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Posko+ETLE/@-7.8817755,110.260529,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55eaf459c3d3:0x440dd1704b6034d0!8m2!3d-7.8817755!4d110.3326268!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11sc0c00dd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2566,25 +2504,24 @@
           <t>(0274) 557111</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.770448</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.770448</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.38492</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Bulaksumur/@-7.7704482,110.3128218,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a585eaaaaaaab:0xcf9aaae016a3a70d!8m2!3d-7.7704482!4d110.3849196!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqx21n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2599,25 +2536,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>-7.822181</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.822181</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.328232</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Simpang+Empat+Kasihan/@-7.8221815,110.2561343,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af928b5b4fa27:0xf2ff8360f116bb5b!8m2!3d-7.8221815!4d110.3282321!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGFXSjJjSGhuUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11frt6_4hx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2637,22 +2573,21 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>-7.83778</v>
+      </c>
       <c r="G61" t="n">
-        <v>-7.83778</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.392211</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kompi+Brimob+Gondo+Wulung/@-7.8377801,110.3201133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5453b4b6a971:0xb8dce3c8cb40aac5!8m2!3d-7.8377801!4d110.3922111!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1z44qt9yf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2675,25 +2610,24 @@
           <t>(0274) 382849</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.1</v>
+        <v>-7.806891</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.806891</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.402547</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Banguntapan/@-7.8377801,110.3201133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57427fdba893:0xb33a91d740d0f003!8m2!3d-7.8068915!4d110.4025471!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5TkhGaWNUTjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11b621yl9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Banguntapan/@-7.8377801,110.3201133,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a57427fdba893:0xb33a91d740d0f003!8m2!3d-7.8068915!4d110.4025471!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5TkhGaWNUTjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11b621yl9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2712,25 +2646,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.909784</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.909784</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.352062</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lampu+merah+bakulan/@-7.9097845,110.2799641,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5547b974838f:0x4692957f21f1be5b!8m2!3d-7.9097845!4d110.3520619!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWIzVnhTbE5uRUFF4AEA-gEECAAQGg!16s%2Fg%2F11n5rx5n42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lampu+merah+bakulan/@-7.9097845,110.2799641,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5547b974838f:0x4692957f21f1be5b!8m2!3d-7.9097845!4d110.3520619!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWIzVnhTbE5uRUFF4AEA-gEECAAQGg!16s%2Fg%2F11n5rx5n42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2757,25 +2690,24 @@
           <t>(0274) 6460181</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.2</v>
+        <v>-7.905111</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.905111</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.347578</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.9097845,110.2799641,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a55ea37bdc66b:0x844f1e0d9a14e317!8m2!3d-7.9051107!4d110.3475779!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IYzNGNWRuWm5SUkFC4AEA-gEECGMQKw!16s%2Fg%2F1pzq4rpdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2791,22 +2723,21 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>-7.814102</v>
+      </c>
       <c r="G65" t="n">
-        <v>-7.814102</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.256969</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Sedayu/@-7.8141017,110.184871,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7af9e853b6aaed:0x4bc47b8e6436643!8m2!3d-7.8141017!4d110.2569688!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11c4rlc2d0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2826,22 +2757,21 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-7.970405</v>
+      </c>
       <c r="G66" t="n">
-        <v>-7.970405</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.605462</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Gunungkidul/@-7.808582,110.2216863,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb4822c8bfc15:0xa0c6d8bc47812314!8m2!3d-7.970405!4d110.605462!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11g9vnhv53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2861,22 +2791,21 @@
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-7.974537</v>
+      </c>
       <c r="G67" t="n">
-        <v>-7.974537</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.594431</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Wonosari/@-7.808582,110.2216863,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb3f148afc3e7:0x7b2d63c6a98b6ced!8m2!3d-7.9745371!4d110.5944305!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11ghny4jd2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2896,22 +2825,21 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>-8.012795000000001</v>
+      </c>
       <c r="G68" t="n">
-        <v>-8.012795000000001</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.420255</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Panggang/@-7.808582,110.2216863,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bab892d81e3fb:0x8d3564d6827d506c!8m2!3d-8.0127954!4d110.420255!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1q6j72f8x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2931,22 +2859,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.994504</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.994504</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.373529</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Purwosari/@-7.9945044,110.0851374,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7baba813db374b:0x5bd2ba26faf16159!8m2!3d-7.9945044!4d110.3735285!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11bc7tsj16?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2966,22 +2893,21 @@
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>-8.004243000000001</v>
+      </c>
       <c r="G70" t="n">
-        <v>-8.004243000000001</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.658858</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Semanu/@-8.0042426,110.3704672,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb44bd93d8b01:0x5c7e62f7b77d4051!8m2!3d-8.0042426!4d110.6588583!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11c5_0yss1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2997,22 +2923,21 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>-8.046785</v>
+      </c>
       <c r="G71" t="n">
-        <v>-8.046785</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.514373</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Saptosari/@-8.046785,110.2259819,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bae0de9db3ca1:0x857db8226997fd89!8m2!3d-8.046785!4d110.514373!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11bc7r7vnc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3028,22 +2953,21 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-7.8515</v>
+      </c>
       <c r="G72" t="n">
-        <v>-7.8515</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.487338</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Patuk/@-8.046785,110.2259819,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a51c262749921:0x94e2bf5e566c1171!8m2!3d-7.8514998!4d110.4873377!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11t5td3snf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3063,22 +2987,21 @@
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>-7.88552</v>
+      </c>
       <c r="G73" t="n">
-        <v>-7.88552</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.620196</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Nglipar/@-8.046785,110.2259819,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a497c59a3464b:0xd047d8c8137bb692!8m2!3d-7.8855202!4d110.6201956!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEGcG9saWNl4AEA!16s%2Fg%2F1q629jqv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3102,22 +3025,21 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>-7.972708</v>
+      </c>
       <c r="G74" t="n">
-        <v>-7.972708</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.712797</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ponjong/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb4c7c53c3481:0xceb83d3480ca6114!8m2!3d-7.9727076!4d110.7127966!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1pztl9k9_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3137,22 +3059,21 @@
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>-7.971481</v>
+      </c>
       <c r="G75" t="n">
-        <v>-7.971481</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.606396</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SATLANTAS+POLRES+GUNUNG+KIDUL/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb367c9fb7c81:0x219fd11a24252bd!8m2!3d-7.9714813!4d110.6063957!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11kq9cl9c1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3172,22 +3093,21 @@
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>-8.068877000000001</v>
+      </c>
       <c r="G76" t="n">
-        <v>-8.068877000000001</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.758595</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Rongkop/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bc88926a88081:0x9bd3973140ffac04!8m2!3d-8.068877!4d110.7585946!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1q62bqlkp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3203,22 +3123,21 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>-7.955738</v>
+      </c>
       <c r="G77" t="n">
-        <v>-7.955738</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.652838</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Karangmojo/@-7.9727076,110.4244055,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb50a66b24aff:0x18d8ae6efb002d3e!8m2!3d-7.955738!4d110.6528378!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11jtypxwpz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3234,22 +3153,21 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>-7.914552</v>
+      </c>
       <c r="G78" t="n">
-        <v>-7.914552</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.556011</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Playen/@-7.9145524,110.26762,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a4d08b7924211:0x7a42b93e84516089!8m2!3d-7.9145524!4d110.5560111!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11b7tpm8bf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3269,22 +3187,21 @@
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-7.844373</v>
+      </c>
       <c r="G79" t="n">
-        <v>-7.844373</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.592763</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gedangsari/@-7.9145524,110.26762,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a4eea8057ca67:0x2946567ac6f0f564!8m2!3d-7.8443731!4d110.5927628!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11b6tw4nfl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3304,22 +3221,21 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-7.831334</v>
+      </c>
       <c r="G80" t="n">
-        <v>-7.831334</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.701945</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngawen/@-7.8313345,110.4135536,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a48630b092ad7:0xdaed8d93af239286!8m2!3d-7.8313345!4d110.7019447!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEGcG9saWNl4AEA!16s%2Fg%2F1q62g5krw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3335,22 +3251,21 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>-8.115328</v>
+      </c>
       <c r="G81" t="n">
-        <v>-8.115328</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.635929</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tepus/@-8.1153281,110.3475383,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb9fc43a223ed:0xe323be9a0d196bdd!8m2!3d-8.1153281!4d110.6359294!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11j2cc5kxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3370,22 +3285,21 @@
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-8.162353</v>
+      </c>
       <c r="G82" t="n">
-        <v>-8.162353</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.769505</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Girisubo/@-8.1153281,110.3475383,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bc6e665399b4b:0x595eca37e352b0e8!8m2!3d-8.1623529!4d110.7695048!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11c2pwjg8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3405,22 +3319,21 @@
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>-7.966286</v>
+      </c>
       <c r="G83" t="n">
-        <v>-7.966286</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.603442</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Satuan+Polisi+Pamong+Praja+(+SATPOL-PP+)+Kabupaten+Gunungkidul/@-8.1153281,110.3475383,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb359680b920b:0x5811b90a8c709c07!8m2!3d-7.9662861!4d110.6034422!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F1ptzy26n5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3440,22 +3353,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.863103</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.863103</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.725305</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Semin/@-7.8631033,110.436914,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7a35edf8fbf985:0xd8c513a2a6ee8d8c!8m2!3d-7.8631033!4d110.7253051!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11cjp7wsbc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3475,22 +3387,21 @@
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>-8.064056000000001</v>
+      </c>
       <c r="G85" t="n">
-        <v>-8.064056000000001</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.578228</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tanjungsari/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb0f8a9de7d67:0xeaea209e3b3ae0c1!8m2!3d-8.0640562!4d110.5782275!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11bc7qxx2n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3510,22 +3421,21 @@
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-8.002185000000001</v>
+      </c>
       <c r="G86" t="n">
-        <v>-8.002185000000001</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.512806</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Paliyan/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb2283a2f8c8f:0x2b0492292541d45e!8m2!3d-8.0021854!4d110.5128063!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEGcG9saWNl4AEA!16s%2Fg%2F11bbrkg76j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3545,22 +3455,21 @@
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-7.976171</v>
+      </c>
       <c r="G87" t="n">
-        <v>-7.976171</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.591505</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x49da4282f2b21983:0x42a042446f78a1bc!8m2!3d-7.9761705!4d110.5915045!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEQc2VjdXJpdHlfc2VydmljZeABAA!16s%2Fg%2F11y98zvcmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3576,22 +3485,21 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>-7.970282</v>
+      </c>
       <c r="G88" t="n">
-        <v>-7.970282</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.605859</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Satreskrim+Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb31ce44d0bd5:0xd0a46c8270b17765!8m2!3d-7.9702819!4d110.6058592!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVskgEQY29ycG9yYXRlX29mZmljZeABAA!16s%2Fg%2F11k_bp8z0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3606,25 +3514,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.8</v>
+        <v>-7.970233</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.970233</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.606629</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gedung+SATPAS+SIM+T.600+Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb3989fb78c75:0x3a745524e0dd45bf!8m2!3d-7.970233!4d110.6066291!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVsWhsiGWthbnRvciBwb2xpc2kgZ3VudW5na2lkdWySARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU55TW1KbVRsTm5FQUXgAQD6AQUI8wgQPg!16s%2Fg%2F11q2y30wbz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gedung+SATPAS+SIM+T.600+Polres+Gunungkidul/@-8.0640562,110.2898364,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Gunungkidul!3m6!1s0x2e7bb3989fb78c75:0x3a745524e0dd45bf!8m2!3d-7.970233!4d110.6066291!15sChlLYW50b3IgUG9saXNpIEd1bnVuZ2tpZHVsWhsiGWthbnRvciBwb2xpc2kgZ3VudW5na2lkdWySARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU55TW1KbVRsTm5FQUXgAQD6AQUI8wgQPg!16s%2Fg%2F11q2y30wbz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3647,25 +3554,24 @@
           <t>(0274) 512940</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.4</v>
+        <v>-7.799503</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.799503</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.362662</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Kota+Besar+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578911c79add:0x7d0f4b41e809c820!8m2!3d-7.7995031!4d110.3626623!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YeABAA!16s%2Fg%2F11b6dp81gf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Kota+Besar+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578911c79add:0x7d0f4b41e809c820!8m2!3d-7.7995031!4d110.3626623!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YeABAA!16s%2Fg%2F11b6dp81gf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3693,22 +3599,21 @@
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G91" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3732,22 +3637,21 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-7.803828</v>
+      </c>
       <c r="G92" t="n">
-        <v>-7.803828</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.370111</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gondomanan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5784fbfea4a3:0xc569b3f8dddbadb6!8m2!3d-7.8038275!4d110.3701109!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tqq0k8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3766,25 +3670,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3812,22 +3715,21 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>-7.797843</v>
+      </c>
       <c r="G94" t="n">
-        <v>-7.797843</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.376579</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakualaman/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57804a6e69a5:0xd5497043793affda!8m2!3d-7.7978432!4d110.3765788!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tjxnvwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3847,22 +3749,21 @@
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>-7.797476</v>
+      </c>
       <c r="G95" t="n">
-        <v>-7.797476</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.360228</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polri+Daerah+Istimewa+Yogyakarta,+%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%AB%EA%A6%B6%EA%A6%A3%EA%A6%8C%EA%A6%AB%EA%A6%83%EA%A6%86%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%B6%EA%A6%A9%EA%A6%BA%EA%A6%AE%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a18e45897:0xdd47126b57f15f3b!8m2!3d-7.7974765!4d110.3602279!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm3dc39s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3886,22 +3787,21 @@
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>-7.816788</v>
+      </c>
       <c r="G96" t="n">
-        <v>-7.816788</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.385797</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Umbulharjo/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57a02a672205:0x90a8bda0957bcde7!8m2!3d-7.8167876!4d110.385797!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1hm2y7dvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3925,22 +3825,21 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-7.814522</v>
+      </c>
       <c r="G97" t="n">
-        <v>-7.814522</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.36288</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mantrijeron/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57965765d7fd:0xc99b2ab670364feb!8m2!3d-7.8145222!4d110.3628796!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1pzswms4m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3964,22 +3863,21 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>-7.818087</v>
+      </c>
       <c r="G98" t="n">
-        <v>-7.818087</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.373395</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mergangsan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57a1902789df:0x7bbcff60a2d241a4!8m2!3d-7.8180873!4d110.3733954!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11bbx0swyj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4003,22 +3901,21 @@
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>-7.788391</v>
+      </c>
       <c r="G99" t="n">
-        <v>-7.788391</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.378041</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Danurejan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a582cc91e9b39:0x9eca52988bea4085!8m2!3d-7.7883908!4d110.3780411!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1tx75td6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4042,22 +3939,21 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>-7.782606</v>
+      </c>
       <c r="G100" t="n">
-        <v>-7.782606</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.37486</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Unit+Laka+Lantas+Polresta+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5833ad644ae7:0x44422233f4cf40de!8m2!3d-7.7826062!4d110.3748596!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11bwc149ks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4081,22 +3977,21 @@
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>-7.797624</v>
+      </c>
       <c r="G101" t="n">
-        <v>-7.797624</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.359954</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngampilan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a19f439a3:0x822005c8aeb1e415!8m2!3d-7.7976244!4d110.3599538!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1td7whkn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4120,22 +4015,21 @@
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>-7.783032</v>
+      </c>
       <c r="G102" t="n">
-        <v>-7.783032</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.359903</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5840bfffffff:0x7fc5021ae8790f58!8m2!3d-7.7830317!4d110.3599025!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1pzpqljw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4151,22 +4045,21 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>-7.813063</v>
+      </c>
       <c r="G103" t="n">
-        <v>-7.813063</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.355804</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Pojok+Beteng+Kulon/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5794beb8f4d1:0xf5dc89f763b359a1!8m2!3d-7.8130626!4d110.3558035!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11f_4s5vrz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4190,22 +4083,21 @@
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>-7.77221</v>
+      </c>
       <c r="G104" t="n">
-        <v>-7.77221</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.361511</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tegalrejo/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5838ca072237:0xef87691426c806d5!8m2!3d-7.7722103!4d110.3615107!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1hm1v97ml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4225,22 +4117,21 @@
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>-7.782408</v>
+      </c>
       <c r="G105" t="n">
-        <v>-7.782408</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.375449</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kepolisian+Kota+Besar+Yogyakarta+Satuan+Lalulintas/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5833aa506865:0xf841f9cddfc9b6f7!8m2!3d-7.7824077!4d110.3754485!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm6fk4x6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4264,22 +4155,21 @@
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>-7.808902</v>
+      </c>
       <c r="G106" t="n">
-        <v>-7.808902</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.365129</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kraton(%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%8F%EA%A6%BF%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80)/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5792f03b6be7:0x9a18b6c735e12d83!8m2!3d-7.8089016!4d110.3651285!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1tdsmd43?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4295,22 +4185,21 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>-7.801605</v>
+      </c>
       <c r="G107" t="n">
-        <v>-7.801605</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.364828</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Km+0/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578f34120563:0x44ba183d5eb50803!8m2!3d-7.8016052!4d110.3648282!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11fz7jztwp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4334,22 +4223,21 @@
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>-7.789446</v>
+      </c>
       <c r="G108" t="n">
-        <v>-7.789446</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.361225</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gedongtengen/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5825fc9be1bf:0x8aaab7396fe34c26!8m2!3d-7.7894463!4d110.3612247!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tgl6bk0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4373,22 +4261,21 @@
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>-7.822656</v>
+      </c>
       <c r="G109" t="n">
-        <v>-7.822656</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.39897</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kotagede/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5716131e9a83:0x8425fe94d512223c!8m2!3d-7.8226561!4d110.3989696!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tx1krnh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4403,25 +4290,24 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>5</v>
+      </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>-7.801692</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.801692</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.369008</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Gondomanan+%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%A9%EA%A6%A4%EA%A6%A4%EA%A7%80/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5785cfd774d5:0x93ad45965f7630f5!8m2!3d-7.8016924!4d110.3690076!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11hbljbyrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Gondomanan+%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%A9%EA%A6%A4%EA%A6%A4%EA%A7%80/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5785cfd774d5:0x93ad45965f7630f5!8m2!3d-7.8016924!4d110.3690076!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11hbljbyrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -4449,22 +4335,21 @@
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>-7.791655</v>
+      </c>
       <c r="G111" t="n">
-        <v>-7.791655</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.386613</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%8F%EA%A6%B8%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A6%A4%EA%A7%80+Polsek+Gondokusuman/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7aff587418d133:0x9138ae8f30b6aa20!8m2!3d-7.7916554!4d110.3866132!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1wnzc3h8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4479,25 +4364,24 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>5</v>
+      </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>-7.803919</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.803919</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.373853</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Denpom+Lanal+Yogyakarta+(+Polisi+Militer+Angkatan+Laut+)/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57b22f60ea97:0x83d229a85724fe8f!8m2!3d-7.8039185!4d110.3738531!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDW1pbGl0YXJ5X2Jhc2XgAQA!16s%2Fg%2F11q1tcb3pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Denpom+Lanal+Yogyakarta+(+Polisi+Militer+Angkatan+Laut+)/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57b22f60ea97:0x83d229a85724fe8f!8m2!3d-7.8039185!4d110.3738531!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDW1pbGl0YXJ5X2Jhc2XgAQA!16s%2Fg%2F11q1tcb3pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4525,22 +4409,21 @@
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>-7.804991</v>
+      </c>
       <c r="G113" t="n">
-        <v>-7.804991</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.350417</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Wirobrajan/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57f385870037:0xb42ce4f876f757cf!8m2!3d-7.8049907!4d110.3504173!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1tfvwl0d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4556,22 +4439,21 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>-7.805069</v>
+      </c>
       <c r="G114" t="n">
-        <v>-7.805069</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.350759</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kepolisian+Negara+Republik+Indonesia/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57f24f162fed:0xd7e003a81f2afe0f!8m2!3d-7.8050694!4d110.3507586!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm4f9tc8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4591,22 +4473,21 @@
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>-7.814283</v>
+      </c>
       <c r="G115" t="n">
-        <v>-7.814283</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.368546</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Pojok+Beteng+Wetan/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5798459689fd:0x885dbb91b8dbdeef!8m2!3d-7.8142826!4d110.3685455!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cp08mwv8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4622,22 +4503,21 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>-7.808529</v>
+      </c>
       <c r="G116" t="n">
-        <v>-7.808529</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.357842</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Unit+Sabhara+Roda+4+Polresta+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a579258f1c673:0x97cbbac1386aabdb!8m2!3d-7.8085294!4d110.3578418!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11c42slp03?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4657,22 +4537,21 @@
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-7.796269</v>
+      </c>
       <c r="G117" t="n">
-        <v>-7.796269</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.36023</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Lapangan+Uji+Praktek+SIM+-+Polresta+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5820a936806b:0x8f6607a63ab3b446!8m2!3d-7.7962691!4d110.3602297!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11dxh7xxky?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4695,25 +4574,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.5</v>
+        <v>-7.796721</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.796721</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.359831</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -4733,22 +4611,21 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>-7.789816</v>
+      </c>
       <c r="G119" t="n">
-        <v>-7.789816</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.36592</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POS+Polisi+Jl+Pasar+Kembang/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5825f1894293:0xfac29ebfe5234402!8m2!3d-7.789816!4d110.3659195!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cm0kvx1r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4768,22 +4645,21 @@
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>-7.799702</v>
+      </c>
       <c r="G120" t="n">
-        <v>-7.799702</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.39058</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Satpol+PP+Kota+Yogyakarta/@-7.7997019,110.3184819,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a571deaf170cd:0xfceebc5095a27906!8m2!3d-7.7997019!4d110.3905797!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11gtz9m_66?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4803,22 +4679,21 @@
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>-7.80849</v>
+      </c>
       <c r="G121" t="n">
-        <v>-7.80849</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.358016</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Sektor+Kraton/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5792597762e5:0x46031adff033b15f!8m2!3d-7.8084898!4d110.3580164!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YeABAA!16s%2Fg%2F11btm7nxrm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4838,22 +4713,21 @@
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>-7.78307</v>
+      </c>
       <c r="G122" t="n">
-        <v>-7.78307</v>
-      </c>
-      <c r="H122" t="n">
         <v>110.359635</v>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kepolisian+Negara+Republik+Indonesia/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c67ae8615:0x78f448748e4f57cb!8m2!3d-7.7830696!4d110.3596354!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm1wp5sp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4873,22 +4747,21 @@
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>-7.800092</v>
+      </c>
       <c r="G123" t="n">
-        <v>-7.800092</v>
-      </c>
-      <c r="H123" t="n">
         <v>110.362464</v>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Reskrim+dan+Narkoba/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578900b0ada7:0x7f9fe3612c5dba69!8m2!3d-7.8000918!4d110.3624642!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDHN0YXRlX3BvbGljZeABAA!16s%2Fg%2F11qt498c_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4904,22 +4777,21 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>-7.789484</v>
+      </c>
       <c r="G124" t="n">
-        <v>-7.789484</v>
-      </c>
-      <c r="H124" t="n">
         <v>110.357969</v>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5822529bcbf5:0x60d0795eaa729583!8m2!3d-7.7894838!4d110.3579693!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cmzqtmct?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4935,22 +4807,21 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>-7.780441</v>
+      </c>
       <c r="G125" t="n">
-        <v>-7.780441</v>
-      </c>
-      <c r="H125" t="n">
         <v>110.37839</v>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/kantor+polisi/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5900123f3f3d:0xd001866ec3a4382a!8m2!3d-7.7804411!4d110.3783902!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBCGhvc3BpdGFs4AEA!16s%2Fg%2F11y57c_6h1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4974,22 +4845,21 @@
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>-7.783495</v>
+      </c>
       <c r="G126" t="n">
-        <v>-7.783495</v>
-      </c>
-      <c r="H126" t="n">
         <v>110.405824</v>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Barat/@-7.7834948,110.3337266,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a59e8a023d623:0xee6b9b2fe90cd5cc!8m2!3d-7.7834948!4d110.4058244!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptyzdsfc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5005,22 +4875,21 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>-7.80818</v>
+      </c>
       <c r="G127" t="n">
-        <v>-7.80818</v>
-      </c>
-      <c r="H127" t="n">
         <v>110.36006</v>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Ngasem/@-7.8081802,110.2879625,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a570745f446c5:0x58bd861e5ec6b3de!8m2!3d-7.8081802!4d110.3600603!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11kqh_fqpv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5036,22 +4905,21 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>-7.799504</v>
+      </c>
       <c r="G128" t="n">
-        <v>-7.799504</v>
-      </c>
-      <c r="H128" t="n">
         <v>110.362619</v>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mapolresta+Yogyakarta/@-7.8081802,110.2879625,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57e7bbc36135:0x4f8015eebaa7da96!8m2!3d-7.7995039!4d110.3626194!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9hY2FkZW154AEA!16s%2Fg%2F11f9fq2x80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5067,22 +4935,21 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>-7.790341</v>
+      </c>
       <c r="G129" t="n">
-        <v>-7.790341</v>
-      </c>
-      <c r="H129" t="n">
         <v>110.354129</v>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Simpang+BPK/@-7.8081802,110.2879625,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a581897f38aef:0x2d5822bb7bce4472!8m2!3d-7.7903414!4d110.3541289!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cmzqtvr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5098,22 +4965,21 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" t="n">
+        <v>-7.822595</v>
+      </c>
       <c r="G130" t="n">
-        <v>-7.822595</v>
-      </c>
-      <c r="H130" t="n">
         <v>110.398606</v>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Sektor+Kotagede%EA%A7%8B%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%92%EA%A6%BA%EA%A6%A3%EA%A6%BA/@-7.8225955,110.3265078,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5716e2d889cb:0xec38454e7c7075c9!8m2!3d-7.8225955!4d110.3986056!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBCmdvdmVybm1lbnTgAQA!16s%2Fg%2F1pv5v4tbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5129,22 +4995,21 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>-7.788025</v>
+      </c>
       <c r="G131" t="n">
-        <v>-7.788025</v>
-      </c>
-      <c r="H131" t="n">
         <v>110.359639</v>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ditlantas+Polda+DIY/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5823720266d5:0x4dfe2e7e5b1f3170!8m2!3d-7.7880249!4d110.3596386!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1hm43_n9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5164,22 +5029,21 @@
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>-7.783254</v>
+      </c>
       <c r="G132" t="n">
-        <v>-7.783254</v>
-      </c>
-      <c r="H132" t="n">
         <v>110.367175</v>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Lantas+Yogyakara/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5830f7b47de9:0x8e971ff2c083c7ba!8m2!3d-7.7832537!4d110.3671751!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11bbs2zsc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5202,25 +5066,24 @@
           <t>(0274) 543920</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F133" t="n">
-        <v>3.8</v>
+        <v>-7.782705</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.782705</v>
-      </c>
-      <c r="H133" t="n">
         <v>110.3606</v>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polantas+Pingit/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c789bb257:0x2f369f8b5cfeacf9!8m2!3d-7.7827052!4d110.3606003!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F1hm39x_60?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J133" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polantas+Pingit/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c789bb257:0x2f369f8b5cfeacf9!8m2!3d-7.7827052!4d110.3606003!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F1hm39x_60?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -5240,22 +5103,21 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>-7.807767</v>
+      </c>
       <c r="G134" t="n">
-        <v>-7.807767</v>
-      </c>
-      <c r="H134" t="n">
         <v>110.350591</v>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Patangpuluhan/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57ed8dc6fb1f:0x68a4bbe1dabd869e!8m2!3d-7.8077669!4d110.3505914!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1hm3vv_1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5279,22 +5141,21 @@
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>-7.783279</v>
+      </c>
       <c r="G135" t="n">
-        <v>-7.783279</v>
-      </c>
-      <c r="H135" t="n">
         <v>110.361436</v>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Unit+Satlantas+Turjawali/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c786bf523:0x885788b155075cec!8m2!3d-7.7832793!4d110.3614363!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11f126v2qb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5310,22 +5171,21 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>-7.778043</v>
+      </c>
       <c r="G136" t="n">
-        <v>-7.778043</v>
-      </c>
-      <c r="H136" t="n">
         <v>110.367566</v>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Jetis/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x51aab363c1d4dc9:0x8207f2126deb4f60!8m2!3d-7.7780435!4d110.3675657!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11b6tw4q9w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5341,22 +5201,21 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>-7.801397</v>
+      </c>
       <c r="G137" t="n">
-        <v>-7.801397</v>
-      </c>
-      <c r="H137" t="n">
         <v>110.356349</v>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Ngabean/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578b6735f5fd:0x852b057aada66a1d!8m2!3d-7.8013968!4d110.3563488!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F11bbyhtbp3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5379,25 +5238,24 @@
           <t>(0274) 773110</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>5</v>
+      </c>
       <c r="F138" t="n">
-        <v>5</v>
+        <v>-7.866178</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.866178</v>
-      </c>
-      <c r="H138" t="n">
         <v>110.175672</v>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12a164ac3d:0x665aab4960922583!8m2!3d-7.8661776!4d110.1756721!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11df0nm9f5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J138" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12a164ac3d:0x665aab4960922583!8m2!3d-7.8661776!4d110.1756721!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11df0nm9f5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -5421,22 +5279,21 @@
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>-7.940261</v>
+      </c>
       <c r="G139" t="n">
-        <v>-7.940261</v>
-      </c>
-      <c r="H139" t="n">
         <v>110.236967</v>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Galur/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afcab7bc755ef:0xefc6643d4f55c827!8m2!3d-7.9402606!4d110.2369673!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1ptxcp78h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5451,25 +5308,24 @@
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
       <c r="F140" t="n">
-        <v>5</v>
+        <v>-7.866007</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.866007</v>
-      </c>
-      <c r="H140" t="n">
         <v>110.176049</v>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK+dan+Perijinan+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb129ffd080f:0x8e85b116dac4a295!8m2!3d-7.8660075!4d110.1760488!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gfjcrt5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J140" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK+dan+Perijinan+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb129ffd080f:0x8e85b116dac4a295!8m2!3d-7.8660075!4d110.1760488!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gfjcrt5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -5493,22 +5349,21 @@
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>-7.856831</v>
+      </c>
       <c r="G141" t="n">
-        <v>-7.856831</v>
-      </c>
-      <c r="H141" t="n">
         <v>110.159949</v>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Wates/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb2337660d8d:0xb3f44b953d7c446e!8m2!3d-7.8568314!4d110.1599491!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F1ptxcp78g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5528,22 +5383,21 @@
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>-7.865491</v>
+      </c>
       <c r="G142" t="n">
-        <v>-7.865491</v>
-      </c>
-      <c r="H142" t="n">
         <v>110.175371</v>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Primkoppol+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb129abf94f3:0x2d2ce84b36a5ad03!8m2!3d-7.8654914!4d110.1753714!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11b6ljv_8m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5563,22 +5417,21 @@
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>-7.660205</v>
+      </c>
       <c r="G143" t="n">
-        <v>-7.660205</v>
-      </c>
-      <c r="H143" t="n">
         <v>110.15676</v>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr">
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Samigaluh/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af36c6825d777:0xc4a2199bb7b4b6d1!8m2!3d-7.6602051!4d110.1567595!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11gn1_njkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5598,22 +5451,21 @@
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>-7.675171</v>
+      </c>
       <c r="G144" t="n">
-        <v>-7.675171</v>
-      </c>
-      <c r="H144" t="n">
         <v>110.262953</v>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr">
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kalibawang/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7a808a54bdef25:0x4957c45b29b22ee6!8m2!3d-7.6751715!4d110.2629531!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1q62dsyr8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5629,22 +5481,21 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>-7.865551</v>
+      </c>
       <c r="G145" t="n">
-        <v>-7.865551</v>
-      </c>
-      <c r="H145" t="n">
         <v>110.156866</v>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr">
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polres+Kulonprogo+Pos+Polisi+Unit+Turjawali/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb3920fd21f5:0x357f2d717213988!8m2!3d-7.8655506!4d110.1568662!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11fswht_gx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5664,22 +5515,21 @@
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>-7.865282</v>
+      </c>
       <c r="G146" t="n">
-        <v>-7.865282</v>
-      </c>
-      <c r="H146" t="n">
         <v>110.175429</v>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/INAFIS+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb1298be323b:0x51cafa482b28eeb7!8m2!3d-7.8652818!4d110.1754291!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERcG9saWNlX2RlcGFydG1lbnTgAQA!16s%2Fg%2F11dxc7r2f3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5699,22 +5549,21 @@
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>-7.777048</v>
+      </c>
       <c r="G147" t="n">
-        <v>-7.777048</v>
-      </c>
-      <c r="H147" t="n">
         <v>110.212256</v>
       </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr">
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Nanggulan/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af9900000000b:0xc8c42f47772a6b15!8m2!3d-7.7770477!4d110.2122558!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1pzrr9l2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5730,22 +5579,21 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>-7.866396</v>
+      </c>
       <c r="G148" t="n">
-        <v>-7.866396</v>
-      </c>
-      <c r="H148" t="n">
         <v>110.175256</v>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr">
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Sabhara+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12a4c7935d:0x290d85d45a11d96!8m2!3d-7.8663962!4d110.1752559!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11fz9z0gqm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5761,22 +5609,21 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>-7.866381</v>
+      </c>
       <c r="G149" t="n">
-        <v>-7.866381</v>
-      </c>
-      <c r="H149" t="n">
         <v>110.175769</v>
       </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tiang+Bendera+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afbaf9763fb41:0xbedab81acfdccb3f!8m2!3d-7.8663813!4d110.1757685!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11h4gps44g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5796,22 +5643,21 @@
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>-7.931265</v>
+      </c>
       <c r="G150" t="n">
-        <v>-7.931265</v>
-      </c>
-      <c r="H150" t="n">
         <v>110.227779</v>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Lendah+Polres+Kulonprogo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afc939d920829:0x96e80d29fbfa25df!8m2!3d-7.931265!4d110.2277788!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F11bbrm8tqb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5831,22 +5677,21 @@
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>-7.843565</v>
+      </c>
       <c r="G151" t="n">
-        <v>-7.843565</v>
-      </c>
-      <c r="H151" t="n">
         <v>110.167538</v>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr">
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pengasih/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb0e62a5a16b:0xc7a2e3c42404ff26!8m2!3d-7.8435652!4d110.1675382!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F1pzrws6q3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5866,22 +5711,21 @@
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>-7.826946</v>
+      </c>
       <c r="G152" t="n">
-        <v>-7.826946</v>
-      </c>
-      <c r="H152" t="n">
         <v>110.224615</v>
       </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr">
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sentolo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afbe555555565:0xfeba69d6a0136e0e!8m2!3d-7.8269464!4d110.2246152!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11bbrbw33k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5900,25 +5744,24 @@
           <t>(0274) 773110</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F153" t="n">
-        <v>4.2</v>
+        <v>-7.865228</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.865228</v>
-      </c>
-      <c r="H153" t="n">
         <v>110.175453</v>
       </c>
-      <c r="I153" t="b">
-        <v>0</v>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb0d625ef09d:0x6b0069bffb1f90d!8m2!3d-7.8652285!4d110.1754528!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvWhsiGWthbnRvciBwb2xpc2kga3Vsb24gcHJvZ2-SARxkZXBhcnRtZW50X29mX21vdG9yX3ZlaGljbGVzmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIZVhFMlMzaG5SUkFC4AEA-gEECAAQIA!16s%2Fg%2F11bwl0sg_t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J153" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+Polres+Kulon+Progo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb0d625ef09d:0x6b0069bffb1f90d!8m2!3d-7.8652285!4d110.1754528!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvWhsiGWthbnRvciBwb2xpc2kga3Vsb24gcHJvZ2-SARxkZXBhcnRtZW50X29mX21vdG9yX3ZlaGljbGVzmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIZVhFMlMzaG5SUkFC4AEA-gEECAAQIA!16s%2Fg%2F11bwl0sg_t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -5942,22 +5785,21 @@
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>-7.771001</v>
+      </c>
       <c r="G154" t="n">
-        <v>-7.771001</v>
-      </c>
-      <c r="H154" t="n">
         <v>110.182003</v>
       </c>
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr">
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Girimulyo/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af1afffffff89:0xc5e1da6f8d039431!8m2!3d-7.7710007!4d110.1820031!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11b73qnhq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5977,22 +5819,21 @@
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>-7.886737</v>
+      </c>
       <c r="G155" t="n">
-        <v>-7.886737</v>
-      </c>
-      <c r="H155" t="n">
         <v>110.081397</v>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr">
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Temon/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae35155555553:0xe2e5caa9dcdd0297!8m2!3d-7.8867373!4d110.0813968!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F1wbyyjm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6008,22 +5849,21 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>-7.865851</v>
+      </c>
       <c r="G156" t="n">
-        <v>-7.865851</v>
-      </c>
-      <c r="H156" t="n">
         <v>110.175537</v>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr">
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Res+Narkoba+Polres+KP/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb12991f8a03:0xd414442b83ae53a9!8m2!3d-7.8658509!4d110.1755366!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgERcG9saWNlX2RlcGFydG1lbnTgAQA!16s%2Fg%2F11bzrnx0fx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6039,22 +5879,21 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="n">
+        <v>-7.890347</v>
+      </c>
       <c r="G157" t="n">
-        <v>-7.890347</v>
-      </c>
-      <c r="H157" t="n">
         <v>110.108852</v>
       </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr">
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Siluwok/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae49d937e68f1:0x7ce7e638a7c0f0b!8m2!3d-7.8903469!4d110.1088519!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11fzf5ry0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6074,22 +5913,21 @@
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>-7.896928</v>
+      </c>
       <c r="G158" t="n">
-        <v>-7.896928</v>
-      </c>
-      <c r="H158" t="n">
         <v>110.162257</v>
       </c>
-      <c r="I158" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr">
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Panjatan/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afc96f3bba723:0x325b15a4b843c812!8m2!3d-7.8969279!4d110.1622567!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1pzpp206w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6109,22 +5947,21 @@
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>-7.832154</v>
+      </c>
       <c r="G159" t="n">
-        <v>-7.832154</v>
-      </c>
-      <c r="H159" t="n">
         <v>110.221109</v>
       </c>
-      <c r="I159" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr">
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DETASEMEN+B+PELOPOR/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afa231985105d:0xe3aacce561cd749!8m2!3d-7.832154!4d110.2211093!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11c5_46d1d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6144,22 +5981,21 @@
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>-7.86503</v>
+      </c>
       <c r="G160" t="n">
-        <v>-7.86503</v>
-      </c>
-      <c r="H160" t="n">
         <v>110.109519</v>
       </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kokap/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae59f6bf4cc43:0xb5a40c13ff956420!8m2!3d-7.8650298!4d110.1095194!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F1pzxzqsnr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6175,22 +6011,21 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>-7.894524</v>
+      </c>
       <c r="G161" t="n">
-        <v>-7.894524</v>
-      </c>
-      <c r="H161" t="n">
         <v>110.14696</v>
       </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr">
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Lalu+Lintas+Bendungan/@-7.8661776,109.887281,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afca95340e0cd:0x5baca7eeccb63f04!8m2!3d-7.8945238!4d110.1469595!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11f10pcfb9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6205,25 +6040,24 @@
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>-7.642394</v>
       </c>
       <c r="G162" t="n">
-        <v>-7.642394</v>
-      </c>
-      <c r="H162" t="n">
         <v>110.254074</v>
       </c>
-      <c r="I162" t="b">
-        <v>0</v>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+polisi/@-7.6423936,109.9656826,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af5bc35da98a3:0x62cc15724aa1fe63!8m2!3d-7.6423936!4d110.2540737!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11rfcbmn_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J162" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+polisi/@-7.6423936,109.9656826,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af5bc35da98a3:0x62cc15724aa1fe63!8m2!3d-7.6423936!4d110.2540737!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11rfcbmn_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -6247,22 +6081,21 @@
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>-7.89454</v>
+      </c>
       <c r="G163" t="n">
-        <v>-7.89454</v>
-      </c>
-      <c r="H163" t="n">
         <v>110.1467</v>
       </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsubsektor+Bendungan/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afcaeb525a647:0xb447991477c832f1!8m2!3d-7.8945405!4d110.1467003!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEGcG9saWNl4AEA!16s%2Fg%2F1pzpr15p7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6277,25 +6110,24 @@
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>5</v>
+      </c>
       <c r="F164" t="n">
-        <v>5</v>
+        <v>-7.826088</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.826088</v>
-      </c>
-      <c r="H164" t="n">
         <v>110.225643</v>
       </c>
-      <c r="I164" t="b">
-        <v>0</v>
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Ngeplang+Sentolo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afa233ac9f8f3:0xcdfb0df3f7deb72!8m2!3d-7.8260884!4d110.2256431!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11fz9_488j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J164" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Ngeplang+Sentolo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afa233ac9f8f3:0xcdfb0df3f7deb72!8m2!3d-7.8260884!4d110.2256431!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11fz9_488j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -6315,22 +6147,21 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>-7.857277</v>
+      </c>
       <c r="G165" t="n">
-        <v>-7.857277</v>
-      </c>
-      <c r="H165" t="n">
         <v>110.160092</v>
       </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr">
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Asrama+Polisi+Polres+Kulon+Progo+Unit+1/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb2330e85ad7:0xf04a22a4150176e6!8m2!3d-7.857277!4d110.1600915!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11f3wmt99g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6346,22 +6177,21 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>-7.87592</v>
+      </c>
       <c r="G166" t="n">
-        <v>-7.87592</v>
-      </c>
-      <c r="H166" t="n">
         <v>110.205914</v>
       </c>
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr">
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb9201bce837:0xc099f181ba6cf63c!8m2!3d-7.8759203!4d110.205914!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11g9m8h2ms?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6376,25 +6206,24 @@
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F167" t="n">
-        <v>3.6</v>
+        <v>-7.865625</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.865625</v>
-      </c>
-      <c r="H167" t="n">
         <v>110.156848</v>
       </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr">
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polantas+Karangnongko/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb39205f27d7:0x679238f1a4f521b3!8m2!3d-7.8656254!4d110.1568479!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11b6hsmww7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6410,22 +6239,21 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>-7.844919</v>
+      </c>
       <c r="G168" t="n">
-        <v>-7.844919</v>
-      </c>
-      <c r="H168" t="n">
         <v>110.21802</v>
       </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr">
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Perempatan+Ngelo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afbccad09e2a5:0xa236efd425c8c8a!8m2!3d-7.8449186!4d110.2180196!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11f157f7v8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6441,22 +6269,21 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>-7.86594</v>
+      </c>
       <c r="G169" t="n">
-        <v>-7.86594</v>
-      </c>
-      <c r="H169" t="n">
         <v>110.175406</v>
       </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr">
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/pelayanan+bpkb/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb1298ef3dc5:0x21d7260f0790e09e!8m2!3d-7.8659399!4d110.1754064!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEWdHJhZmZpY19wb2xpY2Vfc3RhdGlvbuABAA!16s%2Fg%2F11gdkqkf0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6472,22 +6299,21 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>-7.855821</v>
+      </c>
       <c r="G170" t="n">
-        <v>-7.855821</v>
-      </c>
-      <c r="H170" t="n">
         <v>110.157411</v>
       </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr">
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Asrama+Polisi+Polres+Kulon+Progo+Unit+2/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb2485841635:0x37c9a2440411a713!8m2!3d-7.8558213!4d110.1574106!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMc3RhdGVfcG9saWNl4AEA!16s%2Fg%2F11f3wmvns9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6503,22 +6329,21 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>-7.856568</v>
+      </c>
       <c r="G171" t="n">
-        <v>-7.856568</v>
-      </c>
-      <c r="H171" t="n">
         <v>110.165551</v>
       </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr">
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Satpol+PP+Kabupaten+Kulon+Progo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7afb186a2a9d07:0x42b05c9058f0222a!8m2!3d-7.8565685!4d110.1655512!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEMY2l2aWxfcG9saWNl4AEA!16s%2Fg%2F11g7npjm80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6534,22 +6359,21 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="n">
+        <v>-7.716602</v>
+      </c>
       <c r="G172" t="n">
-        <v>-7.716602</v>
-      </c>
-      <c r="H172" t="n">
         <v>110.225049</v>
       </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr">
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Dekso/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7af3c725945f37:0xcc13b5636b911968!8m2!3d-7.7166016!4d110.2250485!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEPdHJhZmZpY19vZmZpY2Vy4AEA!16s%2Fg%2F11tn69gjv7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6565,22 +6389,21 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>-7.826801</v>
+      </c>
       <c r="G173" t="n">
-        <v>-7.826801</v>
-      </c>
-      <c r="H173" t="n">
         <v>110.225894</v>
       </c>
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr">
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Brimob+Sentolo/@-7.8945405,109.8583092,11z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kulon+Progo+!3m6!1s0x2e7ae4a6034c9daf:0xa97aae7b2f159875!8m2!3d-7.8268011!4d110.2258938!15sChlLYW50b3IgUG9saXNpIEt1bG9uIFByb2dvkgEOcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11bbrjt8rp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6592,22 +6415,21 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>-7.762193</v>
+      </c>
       <c r="G174" t="n">
-        <v>-7.762193</v>
-      </c>
-      <c r="H174" t="n">
         <v>110.415376</v>
       </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr">
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Timur/@-7.8056335,110.3636606,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59a19b0b3c1d:0x25df91e47423b2!8m2!3d-7.7621926!4d110.4153761!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzt98j26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6627,22 +6449,21 @@
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="n">
+        <v>-7.772218</v>
+      </c>
       <c r="G175" t="n">
-        <v>-7.772218</v>
-      </c>
-      <c r="H175" t="n">
         <v>110.308399</v>
       </c>
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr">
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Godean/@-7.7722185,110.2363009,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af7afffbd259f:0xd84d8fa461130ab4!8m2!3d-7.7722185!4d110.3083987!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1tf4hb8b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6658,22 +6479,21 @@
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="n">
+        <v>-7.773659</v>
+      </c>
       <c r="G176" t="n">
-        <v>-7.773659</v>
-      </c>
-      <c r="H176" t="n">
         <v>110.410802</v>
       </c>
-      <c r="I176" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Polresta+Sleman/@-7.773659,110.3387037,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59ecd0e5d401:0x92bdff6beef13a84!8m2!3d-7.773659!4d110.4108015!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11g8w8h4b_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6692,25 +6512,24 @@
           <t>(0274) 557111</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>5</v>
+      </c>
       <c r="F177" t="n">
-        <v>5</v>
+        <v>-7.770448</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.770448</v>
-      </c>
-      <c r="H177" t="n">
         <v>110.38492</v>
       </c>
-      <c r="I177" t="b">
-        <v>0</v>
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Polsek+Bulaksumur/@-7.773659,110.3387037,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a585eaaaaaaab:0xcf9aaae016a3a70d!8m2!3d-7.7704482!4d110.3849196!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqx21n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J177" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Polsek+Bulaksumur/@-7.773659,110.3387037,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a585eaaaaaaab:0xcf9aaae016a3a70d!8m2!3d-7.7704482!4d110.3849196!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzvqx21n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -6734,22 +6553,21 @@
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
+      <c r="F178" t="n">
+        <v>-7.80274</v>
+      </c>
       <c r="G178" t="n">
-        <v>-7.80274</v>
-      </c>
-      <c r="H178" t="n">
         <v>110.313879</v>
       </c>
-      <c r="I178" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr">
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gamping/@-7.8027402,110.2417816,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af82ddfb4ee21:0xe4a493dfd45cda3f!8m2!3d-7.8027402!4d110.3138794!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tgyz07t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6769,22 +6587,21 @@
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="n">
+        <v>-7.706698</v>
+      </c>
       <c r="G179" t="n">
-        <v>-7.706698</v>
-      </c>
-      <c r="H179" t="n">
         <v>110.347617</v>
       </c>
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr">
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Sleman/@-7.7066976,110.2755187,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f4f21629b4f:0x855bd267f12870b6!8m2!3d-7.7066976!4d110.3476165!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11clzv121q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6804,22 +6621,21 @@
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>-7.765817</v>
+      </c>
       <c r="G180" t="n">
-        <v>-7.765817</v>
-      </c>
-      <c r="H180" t="n">
         <v>110.47214</v>
       </c>
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr">
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kalasan/@-7.7658174,110.4000425,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a57c62bcf2d99:0xefe2be2ae9b6459f!8m2!3d-7.7658174!4d110.4721403!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1q62hp_35?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6843,22 +6659,21 @@
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>-7.696696</v>
+      </c>
       <c r="G181" t="n">
-        <v>-7.696696</v>
-      </c>
-      <c r="H181" t="n">
         <v>110.347047</v>
       </c>
-      <c r="I181" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr">
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Sleman/@-7.696696,110.2749495,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a598550719909:0x8ad31fef5597f6f0!8m2!3d-7.696696!4d110.3470473!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tf2hw0n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6882,22 +6697,21 @@
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>-7.783495</v>
+      </c>
       <c r="G182" t="n">
-        <v>-7.783495</v>
-      </c>
-      <c r="H182" t="n">
         <v>110.405824</v>
       </c>
-      <c r="I182" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr">
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Barat/@-7.7834948,110.3337266,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59e8a023d623:0xee6b9b2fe90cd5cc!8m2!3d-7.7834948!4d110.4058244!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptyzdsfc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6917,22 +6731,21 @@
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>-7.773488</v>
+      </c>
       <c r="G183" t="n">
-        <v>-7.773488</v>
-      </c>
-      <c r="H183" t="n">
         <v>110.253554</v>
       </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr">
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Moyudan/@-7.7734878,110.1814559,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af73bfa3db5c9:0xea7e1967629e0bbe!8m2!3d-7.7734878!4d110.2535537!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tq_yyn3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6947,25 +6760,24 @@
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F184" t="n">
-        <v>3.9</v>
+        <v>-7.748855</v>
       </c>
       <c r="G184" t="n">
-        <v>-7.748855</v>
-      </c>
-      <c r="H184" t="n">
         <v>110.361935</v>
       </c>
-      <c r="I184" t="b">
-        <v>0</v>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+Jombor/@-7.7488555,110.289837,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f1410700cf:0x184f69a818c2fbf4!8m2!3d-7.7488555!4d110.3619348!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11bzrpr2cb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J184" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+Jombor/@-7.7488555,110.289837,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f1410700cf:0x184f69a818c2fbf4!8m2!3d-7.7488555!4d110.3619348!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11bzrpr2cb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -6989,22 +6801,21 @@
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>-7.790518</v>
+      </c>
       <c r="G185" t="n">
-        <v>-7.790518</v>
-      </c>
-      <c r="H185" t="n">
         <v>110.460027</v>
       </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr">
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Berbah/@-7.7905181,110.3879294,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a509155555569:0x98c0aea28f9675eb!8m2!3d-7.7905181!4d110.4600272!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pty72y7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7020,22 +6831,21 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>-7.755802</v>
+      </c>
       <c r="G186" t="n">
-        <v>-7.755802</v>
-      </c>
-      <c r="H186" t="n">
         <v>110.399397</v>
       </c>
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr">
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polisi+Condong+Catur/@-7.7558021,110.3272991,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59a0ffffffff:0x75f34265e7dbabec!8m2!3d-7.7558021!4d110.3993969!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pztc07cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7055,22 +6865,21 @@
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>-7.734542</v>
+      </c>
       <c r="G187" t="n">
-        <v>-7.734542</v>
-      </c>
-      <c r="H187" t="n">
         <v>110.328423</v>
       </c>
-      <c r="I187" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr">
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mlati/@-7.7345421,110.2563256,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af73c3974f21f:0xa45a5510322ae7de!8m2!3d-7.7345421!4d110.3284234!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11t178vm1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7090,22 +6899,21 @@
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>-7.759475</v>
+      </c>
       <c r="G188" t="n">
-        <v>-7.759475</v>
-      </c>
-      <c r="H188" t="n">
         <v>110.488467</v>
       </c>
-      <c r="I188" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr">
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Prambanan+Sleman/@-7.7594746,110.416369,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5aeef2ede2d1:0x3c202c666d6933d5!8m2!3d-7.7594746!4d110.4884668!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzy4_0by?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7129,22 +6937,21 @@
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>-7.77221</v>
+      </c>
       <c r="G189" t="n">
-        <v>-7.77221</v>
-      </c>
-      <c r="H189" t="n">
         <v>110.361511</v>
       </c>
-      <c r="I189" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tegalrejo/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5838ca072237:0xef87691426c806d5!8m2!3d-7.7722103!4d110.3615107!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1hm1v97ml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7164,22 +6971,21 @@
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>-7.758294</v>
+      </c>
       <c r="G190" t="n">
-        <v>-7.758294</v>
-      </c>
-      <c r="H190" t="n">
         <v>110.395499</v>
       </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr">
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5787bd5b6bc5:0xd55f7ac52dab5998!8m2!3d-7.758294!4d110.3954992!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F12hny_gg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7195,22 +7001,21 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>-7.745165</v>
+      </c>
       <c r="G191" t="n">
-        <v>-7.745165</v>
-      </c>
-      <c r="H191" t="n">
         <v>110.349106</v>
       </c>
-      <c r="I191" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr">
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a589206a89b09:0x62b7ae7e1bad48bd!8m2!3d-7.7451647!4d110.3491055!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11dxh7p0s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7225,25 +7030,24 @@
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>4</v>
+      </c>
       <c r="F192" t="n">
-        <v>4</v>
+        <v>-7.755289</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.755289</v>
-      </c>
-      <c r="H192" t="n">
         <v>110.38328</v>
       </c>
-      <c r="I192" t="b">
-        <v>0</v>
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Lantas+Kentungan/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59aa158cf8af:0x6b61b58f2a5aab9a!8m2!3d-7.755289!4d110.3832801!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEmp1c3RpY2VfZGVwYXJ0bWVudOABAA!16s%2Fg%2F11c6pmq6hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J192" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Lantas+Kentungan/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59aa158cf8af:0x6b61b58f2a5aab9a!8m2!3d-7.755289!4d110.3832801!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEmp1c3RpY2VfZGVwYXJ0bWVudOABAA!16s%2Fg%2F11c6pmq6hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -7271,22 +7075,21 @@
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G193" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H193" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I193" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr">
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7722103,110.2894129,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7305,25 +7108,24 @@
           <t>(0274) 868424</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F194" t="n">
-        <v>4.2</v>
+        <v>-7.697103</v>
       </c>
       <c r="G194" t="n">
-        <v>-7.697103</v>
-      </c>
-      <c r="H194" t="n">
         <v>110.346522</v>
       </c>
-      <c r="I194" t="b">
-        <v>0</v>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Resor+Sleman/@-7.6971026,110.2744244,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f43b7a7e645:0x117ed5382f99a2c1!8m2!3d-7.6971026!4d110.3465222!15sChRLYW50b3IgUG9saXNpIFNsZW1hbuABAA!16s%2Fg%2F11b6d0l7cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J194" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Resor+Sleman/@-7.6971026,110.2744244,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f43b7a7e645:0x117ed5382f99a2c1!8m2!3d-7.6971026!4d110.3465222!15sChRLYW50b3IgUG9saXNpIFNsZW1hbuABAA!16s%2Fg%2F11b6d0l7cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -7342,25 +7144,24 @@
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>5</v>
+      </c>
       <c r="F195" t="n">
-        <v>5</v>
+        <v>-7.761825</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.761825</v>
-      </c>
-      <c r="H195" t="n">
         <v>110.411809</v>
       </c>
-      <c r="I195" t="b">
-        <v>0</v>
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+UPN+Veteran/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a599a8c444315:0xfcb2ee8e87a5b75e!8m2!3d-7.7618253!4d110.4118088!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdGNXVmZUa2xSRUFF4AEA-gEECAAQQA!16s%2Fg%2F11f12681q4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J195" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Lalulintas+UPN+Veteran/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a599a8c444315:0xfcb2ee8e87a5b75e!8m2!3d-7.7618253!4d110.4118088!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdGNXVmZUa2xSRUFF4AEA-gEECAAQQA!16s%2Fg%2F11f12681q4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -7388,22 +7189,21 @@
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>-7.757557</v>
+      </c>
       <c r="G196" t="n">
-        <v>-7.757557</v>
-      </c>
-      <c r="H196" t="n">
         <v>110.400701</v>
       </c>
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr">
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polda+D.I.+Yogyakarta/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a599977ac8e1b:0xc28ff50874bd94a8!8m2!3d-7.7575571!4d110.4007005!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDHN0YXRlX3BvbGljZeABAA!16s%2Fg%2F1pxys8_6w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7422,25 +7222,24 @@
           <t>(0274) 888035</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>4</v>
+      </c>
       <c r="F197" t="n">
-        <v>4</v>
+        <v>-7.769039</v>
       </c>
       <c r="G197" t="n">
-        <v>-7.769039</v>
-      </c>
-      <c r="H197" t="n">
         <v>110.431482</v>
       </c>
-      <c r="I197" t="b">
-        <v>0</v>
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sat+PJR+Ditlantas+Polda+DIY/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5a217abba5ed:0x9719679c1fb151e3!8m2!3d-7.7690391!4d110.4314822!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWGQzWklVVTluRUFF4AEA-gEECAAQDw!16s%2Fg%2F11bv3xrcwy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J197" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sat+PJR+Ditlantas+Polda+DIY/@-7.7618253,110.339711,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5a217abba5ed:0x9719679c1fb151e3!8m2!3d-7.7690391!4d110.4314822!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWGQzWklVVTluRUFF4AEA-gEECAAQDw!16s%2Fg%2F11bv3xrcwy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -7464,22 +7263,21 @@
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>-7.758971</v>
+      </c>
       <c r="G198" t="n">
-        <v>-7.758971</v>
-      </c>
-      <c r="H198" t="n">
         <v>110.362115</v>
       </c>
-      <c r="I198" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Detasemen+Polisi+Militer+Denpom+IV%2F2+Yka+Pomdam+IV%2FDiponegoro/@-7.7589711,110.2900173,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f6f72274f1:0x53e373e1f065fd39!8m2!3d-7.7589711!4d110.3621151!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1pzpwwrhg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7503,22 +7301,21 @@
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>-7.803828</v>
+      </c>
       <c r="G199" t="n">
-        <v>-7.803828</v>
-      </c>
-      <c r="H199" t="n">
         <v>110.370111</v>
       </c>
-      <c r="I199" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gondomanan/@-7.7589711,110.2900173,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5784fbfea4a3:0xc569b3f8dddbadb6!8m2!3d-7.8038275!4d110.3701109!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tqq0k8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7538,22 +7335,21 @@
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>-7.723479</v>
+      </c>
       <c r="G200" t="n">
-        <v>-7.723479</v>
-      </c>
-      <c r="H200" t="n">
         <v>110.400944</v>
       </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr">
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngaglik/@-7.7234786,110.3288462,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59aa0873795f:0x478c897fa33c24b!8m2!3d-7.7234786!4d110.400944!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1pzs4252m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7569,22 +7365,21 @@
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>-7.783073</v>
+      </c>
       <c r="G201" t="n">
-        <v>-7.783073</v>
-      </c>
-      <c r="H201" t="n">
         <v>110.410665</v>
       </c>
-      <c r="I201" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr">
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Janti/@-7.7234786,110.3288462,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a59ef7b7dff59:0x16d06975b0699348!8m2!3d-7.7830725!4d110.4106649!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11ddww9pnq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7604,22 +7399,21 @@
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>-7.720148</v>
+      </c>
       <c r="G202" t="n">
-        <v>-7.720148</v>
-      </c>
-      <c r="H202" t="n">
         <v>110.308698</v>
       </c>
-      <c r="I202" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr">
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Seyegan/@-7.7201483,110.2366005,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af60b15d42ca9:0xc5c92e4ccd70a5cf!8m2!3d-7.7201483!4d110.3086983!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptz4nzr4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7635,22 +7429,21 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>-7.697064</v>
+      </c>
       <c r="G203" t="n">
-        <v>-7.697064</v>
-      </c>
-      <c r="H203" t="n">
         <v>110.347686</v>
       </c>
-      <c r="I203" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Reskrim+Polresta+Sleman/@-7.6970645,110.2755885,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f51e07423f9:0x4d4dff62c30e4a76!8m2!3d-7.6970645!4d110.3476863!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11k7ks8mx8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7674,22 +7467,21 @@
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>-7.789446</v>
+      </c>
       <c r="G204" t="n">
-        <v>-7.789446</v>
-      </c>
-      <c r="H204" t="n">
         <v>110.361225</v>
       </c>
-      <c r="I204" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gedongtengen/@-7.7894463,110.2891269,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5825fc9be1bf:0x8aaab7396fe34c26!8m2!3d-7.7894463!4d110.3612247!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tgl6bk0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7708,25 +7500,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F205" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G205" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H205" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I205" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.7894463,110.2891269,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIFNsZW1hbloWIhRrYW50b3IgcG9saXNpIHNsZW1hbpIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7742,22 +7533,21 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>-7.755216</v>
+      </c>
       <c r="G206" t="n">
-        <v>-7.755216</v>
-      </c>
-      <c r="H206" t="n">
         <v>110.383302</v>
       </c>
-      <c r="I206" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr">
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/pos+polisi+kentungan/@-7.7894463,110.2891269,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5900213d4113:0x19f39359fb732f1!8m2!3d-7.7552161!4d110.3833022!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11ld5x891n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7777,22 +7567,21 @@
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>-7.746385</v>
+      </c>
       <c r="G207" t="n">
-        <v>-7.746385</v>
-      </c>
-      <c r="H207" t="n">
         <v>110.412805</v>
       </c>
-      <c r="I207" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr">
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Polisi+Pamong+Praja/@-7.746385,110.3407069,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5970bf5f8cc3:0x30183dfb647b7456!8m2!3d-7.746385!4d110.4128047!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1pzv1s58r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7812,22 +7601,21 @@
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
+      <c r="F208" t="n">
+        <v>-7.652539</v>
+      </c>
       <c r="G208" t="n">
-        <v>-7.652539</v>
-      </c>
-      <c r="H208" t="n">
         <v>110.326476</v>
       </c>
-      <c r="I208" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr">
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tempel/@-7.6525391,110.254378,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af559c68266dd:0x7d9706a40fadf76d!8m2!3d-7.6525391!4d110.3264758!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1pzr4qx2t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7842,25 +7630,24 @@
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>3</v>
+      </c>
       <c r="F209" t="n">
-        <v>3</v>
+        <v>-7.799716</v>
       </c>
       <c r="G209" t="n">
-        <v>-7.799716</v>
-      </c>
-      <c r="H209" t="n">
         <v>110.330136</v>
       </c>
-      <c r="I209" t="b">
-        <v>0</v>
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J209" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+POLISI+%22Pelem+Gurih%22/@-7.7997164,110.2580381,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af8006ffaa9b5:0x3a5cefd38d065119!8m2!3d-7.7997164!4d110.3301359!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBFHB1YmxpY19zYWZldHlfb2ZmaWNl4AEA!16s%2Fg%2F11dym8znt5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -7884,22 +7671,21 @@
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>-7.720659</v>
+      </c>
       <c r="G210" t="n">
-        <v>-7.720659</v>
-      </c>
-      <c r="H210" t="n">
         <v>110.359689</v>
       </c>
-      <c r="I210" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr">
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polisi+Pariwisata+Sleman/@-7.720659,110.287591,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58c93973e67d:0xebf1039f93618117!8m2!3d-7.720659!4d110.3596888!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11bc7qd2yn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7919,22 +7705,21 @@
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>-7.698017</v>
+      </c>
       <c r="G211" t="n">
-        <v>-7.698017</v>
-      </c>
-      <c r="H211" t="n">
         <v>110.444676</v>
       </c>
-      <c r="I211" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr">
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngemplak/@-7.6980168,110.3725786,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5c12229434bd:0x4f08b169ac466836!8m2!3d-7.6980168!4d110.4446764!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11c2j9pg_m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7958,22 +7743,21 @@
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="n">
+        <v>-7.724829</v>
+      </c>
       <c r="G212" t="n">
-        <v>-7.724829</v>
-      </c>
-      <c r="H212" t="n">
         <v>110.267044</v>
       </c>
-      <c r="I212" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr">
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Minggir/@-7.7248295,110.1949461,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7af69bbf25d31f:0xaf38013db1f160b0!8m2!3d-7.7248295!4d110.2670439!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1thv28rr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7997,22 +7781,21 @@
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
+      <c r="F213" t="n">
+        <v>-7.788391</v>
+      </c>
       <c r="G213" t="n">
-        <v>-7.788391</v>
-      </c>
-      <c r="H213" t="n">
         <v>110.378041</v>
       </c>
-      <c r="I213" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr">
+      <c r="H213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Danurejan/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a582cc91e9b39:0x9eca52988bea4085!8m2!3d-7.7883908!4d110.3780411!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1tx75td6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8036,22 +7819,21 @@
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
+      <c r="F214" t="n">
+        <v>-7.797843</v>
+      </c>
       <c r="G214" t="n">
-        <v>-7.797843</v>
-      </c>
-      <c r="H214" t="n">
         <v>110.376579</v>
       </c>
-      <c r="I214" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr">
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakualaman/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a57804a6e69a5:0xd5497043793affda!8m2!3d-7.7978432!4d110.3765788!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tjxnvwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8075,22 +7857,21 @@
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
+      <c r="F215" t="n">
+        <v>-7.783032</v>
+      </c>
       <c r="G215" t="n">
-        <v>-7.783032</v>
-      </c>
-      <c r="H215" t="n">
         <v>110.359903</v>
       </c>
-      <c r="I215" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr">
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5840bfffffff:0x7fc5021ae8790f58!8m2!3d-7.7830317!4d110.3599025!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBBnBvbGljZeABAA!16s%2Fg%2F1pzpqljw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8106,22 +7887,21 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
+      <c r="F216" t="n">
+        <v>-7.735478</v>
+      </c>
       <c r="G216" t="n">
-        <v>-7.735478</v>
-      </c>
-      <c r="H216" t="n">
         <v>110.362906</v>
       </c>
-      <c r="I216" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr">
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Pos+Mlati/@-7.7883908,110.3059433,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58e9c645e693:0xf4d87d9c9a37d949!8m2!3d-7.735478!4d110.3629059!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11gfhb4z9l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8136,25 +7916,24 @@
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>4</v>
+      </c>
       <c r="F217" t="n">
-        <v>4</v>
+        <v>-7.757521</v>
       </c>
       <c r="G217" t="n">
-        <v>-7.757521</v>
-      </c>
-      <c r="H217" t="n">
         <v>110.480283</v>
       </c>
-      <c r="I217" t="b">
-        <v>0</v>
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Proliman/@-7.7575212,110.4081854,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5afa25f6a983:0x39e34f20f4cf3a66!8m2!3d-7.7575212!4d110.4802832!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11ddwxqtbl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J217" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Proliman/@-7.7575212,110.4081854,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5afa25f6a983:0x39e34f20f4cf3a66!8m2!3d-7.7575212!4d110.4802832!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11ddwxqtbl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -8174,22 +7953,21 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>-7.74497</v>
+      </c>
       <c r="G218" t="n">
-        <v>-7.74497</v>
-      </c>
-      <c r="H218" t="n">
         <v>110.364762</v>
       </c>
-      <c r="I218" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr">
+      <c r="H218" t="b">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Ronda+Jombor+Lor/@-7.7449698,110.2926637,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a58f026619413:0x9cb5b7e9a91c8dc9!8m2!3d-7.7449698!4d110.3647615!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11g01_99xh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8205,22 +7983,21 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
+      <c r="F219" t="n">
+        <v>-7.696581</v>
+      </c>
       <c r="G219" t="n">
-        <v>-7.696581</v>
-      </c>
-      <c r="H219" t="n">
         <v>110.346708</v>
       </c>
-      <c r="I219" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr">
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Narkoba+Polresta+Sleman/@-7.7449698,110.2926637,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f0b02037cb5:0x881722a7240efd71!8m2!3d-7.696581!4d110.3467075!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11r95dg_2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8240,22 +8017,21 @@
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="n">
+        <v>-7.660559</v>
+      </c>
       <c r="G220" t="n">
-        <v>-7.660559</v>
-      </c>
-      <c r="H220" t="n">
         <v>110.42144</v>
       </c>
-      <c r="I220" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr">
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakem/@-7.6605589,110.3493424,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5e9937a52f7b:0x32a0301102373b13!8m2!3d-7.6605589!4d110.4214402!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1pzrhlfyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
